--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_ForwardSwapQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="26" r:id="rId4"/>
     <sheet name="1Y" sheetId="24" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
   <si>
     <t>Currency</t>
   </si>
@@ -246,6 +243,9 @@
   <si>
     <t>0d</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +259,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -780,22 +780,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1090,7 +1074,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -1102,13 +1086,13 @@
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="58" t="s">
         <v>35</v>
@@ -1117,14 +1101,14 @@
       <c r="D2" s="59"/>
       <c r="E2" s="60"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -1133,7 +1117,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -1144,7 +1128,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -1155,7 +1139,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -1166,19 +1150,18 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -1189,15 +1172,15 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="58" t="s">
         <v>34</v>
       </c>
@@ -1205,13 +1188,13 @@
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
         <v>0</v>
@@ -1221,7 +1204,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
         <v>54</v>
@@ -1231,7 +1214,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
         <v>55</v>
@@ -1241,7 +1224,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -1251,7 +1234,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -1261,7 +1244,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="9" t="s">
         <v>11</v>
@@ -1271,7 +1254,7 @@
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="12" thickBot="1">
+    <row r="20" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1306,7 +1289,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
@@ -1329,7 +1312,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1344,7 +1327,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1364,12 +1347,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Fwd"&amp;$E$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>GBP_020_SwSB6L_Fwd1w.xml</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="27" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="28" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>
@@ -1380,7 +1363,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="29" t="s">
         <v>14</v>
@@ -1438,7 +1421,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="29" t="s">
         <v>15</v>
@@ -1499,7 +1482,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="51"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="29" t="s">
         <v>16</v>
@@ -1560,7 +1543,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="29" t="s">
         <v>17</v>
@@ -1621,7 +1604,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="29" t="s">
         <v>18</v>
@@ -1682,7 +1665,7 @@
       <c r="S7" s="53"/>
       <c r="T7" s="54"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="29" t="s">
         <v>19</v>
@@ -1729,7 +1712,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="29" t="s">
         <v>20</v>
@@ -1776,7 +1759,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="29" t="s">
         <v>21</v>
@@ -1823,7 +1806,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="29" t="s">
         <v>22</v>
@@ -1870,7 +1853,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="29" t="s">
         <v>23</v>
@@ -1917,7 +1900,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -1964,7 +1947,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="29" t="s">
         <v>25</v>
@@ -2011,7 +1994,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="29" t="s">
         <v>39</v>
@@ -2058,7 +2041,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="29" t="s">
         <v>40</v>
@@ -2105,7 +2088,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="29" t="s">
         <v>26</v>
@@ -2152,7 +2135,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="29" t="s">
         <v>41</v>
@@ -2199,7 +2182,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="29" t="s">
         <v>42</v>
@@ -2246,7 +2229,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="29" t="s">
         <v>43</v>
@@ -2293,7 +2276,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="29" t="s">
         <v>44</v>
@@ -2340,7 +2323,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="29" t="s">
         <v>27</v>
@@ -2387,7 +2370,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="29" t="s">
         <v>45</v>
@@ -2434,7 +2417,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="29" t="s">
         <v>46</v>
@@ -2481,7 +2464,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="29" t="s">
         <v>47</v>
@@ -2528,7 +2511,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="29" t="s">
         <v>48</v>
@@ -2575,7 +2558,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
         <v>28</v>
@@ -2622,7 +2605,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
         <v>49</v>
@@ -2669,7 +2652,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="29" t="s">
         <v>50</v>
@@ -2716,7 +2699,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="29" t="s">
         <v>51</v>
@@ -2763,7 +2746,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="29" t="s">
         <v>52</v>
@@ -2810,7 +2793,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="29" t="s">
         <v>29</v>
@@ -2857,7 +2840,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
         <v>30</v>
@@ -2904,7 +2887,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
         <v>31</v>
@@ -2951,7 +2934,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="29" t="s">
         <v>32</v>
@@ -2998,7 +2981,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
         <v>33</v>
@@ -3045,7 +3028,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -3077,7 +3060,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -3099,7 +3082,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3114,7 +3097,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -3150,7 +3133,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -3208,7 +3191,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -3266,7 +3249,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="51"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -3324,7 +3307,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -3382,7 +3365,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -3440,7 +3423,7 @@
       <c r="S7" s="53"/>
       <c r="T7" s="54"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -3484,7 +3467,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -3528,7 +3511,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -3572,7 +3555,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -3616,7 +3599,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -3660,7 +3643,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -3704,7 +3687,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -3748,7 +3731,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -3792,7 +3775,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -3836,7 +3819,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -3880,7 +3863,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -3924,7 +3907,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -3968,7 +3951,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -4012,7 +3995,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -4056,7 +4039,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -4100,7 +4083,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -4144,7 +4127,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -4188,7 +4171,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -4232,7 +4215,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -4276,7 +4259,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -4320,7 +4303,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -4364,7 +4347,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -4408,7 +4391,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -4452,7 +4435,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -4496,7 +4479,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -4540,7 +4523,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -4584,7 +4567,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -4628,7 +4611,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -4672,7 +4655,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -4716,7 +4699,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -4748,7 +4731,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -4770,7 +4753,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4785,7 +4768,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4821,7 +4804,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -4876,7 +4859,7 @@
       <c r="S3" s="50"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -4935,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -4990,7 +4973,7 @@
       <c r="S5" s="50"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -5045,7 +5028,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="51"/>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -5104,7 +5087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -5145,7 +5128,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -5186,7 +5169,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -5227,7 +5210,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -5268,7 +5251,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -5309,7 +5292,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -5350,7 +5333,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -5391,7 +5374,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -5432,7 +5415,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -5473,7 +5456,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -5514,7 +5497,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -5555,7 +5538,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -5596,7 +5579,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -5637,7 +5620,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -5678,7 +5661,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -5719,7 +5702,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -5760,7 +5743,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -5801,7 +5784,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -5842,7 +5825,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -5883,7 +5866,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -5924,7 +5907,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -5965,7 +5948,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -6006,7 +5989,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -6047,7 +6030,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -6088,7 +6071,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -6129,7 +6112,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -6170,7 +6153,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -6211,7 +6194,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -6252,7 +6235,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -6293,7 +6276,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -6325,7 +6308,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -6348,7 +6331,7 @@
     <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6363,7 +6346,7 @@
       <c r="L1" s="33"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:20" ht="22.5">
+    <row r="2" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -6383,12 +6366,12 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_"&amp;"Fwd"&amp;$E$3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;".xml"</f>
         <v>GBP_020_SwSB6L_Fwd0d_Spr6L12L.xml</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="L2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="36"/>
@@ -6399,7 +6382,7 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="44" t="s">
         <v>14</v>
@@ -6461,7 +6444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -6526,7 +6509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="44" t="s">
         <v>16</v>
@@ -6591,7 +6574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="44" t="s">
         <v>17</v>
@@ -6656,7 +6639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="12" thickBot="1">
+    <row r="7" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
@@ -6721,7 +6704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="44" t="s">
         <v>19</v>
@@ -6768,7 +6751,7 @@
       </c>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="44" t="s">
         <v>20</v>
@@ -6815,7 +6798,7 @@
       </c>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="44" t="s">
         <v>21</v>
@@ -6862,7 +6845,7 @@
       </c>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="44" t="s">
         <v>22</v>
@@ -6909,7 +6892,7 @@
       </c>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="44" t="s">
         <v>23</v>
@@ -6956,7 +6939,7 @@
       </c>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="44" t="s">
         <v>24</v>
@@ -7003,7 +6986,7 @@
       </c>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="44" t="s">
         <v>25</v>
@@ -7050,7 +7033,7 @@
       </c>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="44" t="s">
         <v>39</v>
@@ -7097,7 +7080,7 @@
       </c>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44" t="s">
         <v>40</v>
@@ -7144,7 +7127,7 @@
       </c>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44" t="s">
         <v>26</v>
@@ -7191,7 +7174,7 @@
       </c>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -7238,7 +7221,7 @@
       </c>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
@@ -7285,7 +7268,7 @@
       </c>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44" t="s">
         <v>43</v>
@@ -7332,7 +7315,7 @@
       </c>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="44" t="s">
         <v>44</v>
@@ -7379,7 +7362,7 @@
       </c>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="44" t="s">
         <v>27</v>
@@ -7426,7 +7409,7 @@
       </c>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="44" t="s">
         <v>45</v>
@@ -7473,7 +7456,7 @@
       </c>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="44" t="s">
         <v>46</v>
@@ -7520,7 +7503,7 @@
       </c>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="44" t="s">
         <v>47</v>
@@ -7567,7 +7550,7 @@
       </c>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="44" t="s">
         <v>48</v>
@@ -7614,7 +7597,7 @@
       </c>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="44" t="s">
         <v>28</v>
@@ -7661,7 +7644,7 @@
       </c>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="44" t="s">
         <v>49</v>
@@ -7708,7 +7691,7 @@
       </c>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="44" t="s">
         <v>50</v>
@@ -7755,7 +7738,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="44" t="s">
         <v>51</v>
@@ -7802,7 +7785,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="44" t="s">
         <v>52</v>
@@ -7849,7 +7832,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="44" t="s">
         <v>29</v>
@@ -7896,7 +7879,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="44" t="s">
         <v>30</v>
@@ -7943,7 +7926,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="44" t="s">
         <v>31</v>
@@ -7990,7 +7973,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="44" t="s">
         <v>32</v>
@@ -8037,7 +8020,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="44" t="s">
         <v>33</v>
@@ -8084,7 +8067,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="12" thickBot="1">
+    <row r="37" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_ForwardSwapQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
   <si>
     <t>Currency</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>0d</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1153,9 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>70</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1348,12 +1346,12 @@
         <v>GBP_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="27" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="28" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="28" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3118,12 +3116,12 @@
         <v>GBP_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4789,12 +4787,12 @@
         <v>GBP_020_SwSB3L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6367,12 +6365,12 @@
         <v>GBP_020_SwSB6L_Fwd0d_Spr6L12L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
